--- a/TimeKeeperStatusesTest.xlsx
+++ b/TimeKeeperStatusesTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TimeKeeper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DF40F4-4762-42AB-A7DF-8427F828CF09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF515056-97BA-4A27-807E-2C2E3355D5C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="828" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="828" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeePosition" sheetId="10" r:id="rId1"/>
@@ -19,10 +19,17 @@
     <sheet name="CustomerStatus" sheetId="13" r:id="rId4"/>
     <sheet name="ProjectStatus" sheetId="14" r:id="rId5"/>
     <sheet name="PricingStatus" sheetId="15" r:id="rId6"/>
+    <sheet name="MemberStatus" sheetId="16" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="Calendar" localSheetId="6">#REF!</definedName>
     <definedName name="Calendar">#REF!</definedName>
+    <definedName name="Categories" localSheetId="6">#REF!</definedName>
     <definedName name="Categories">#REF!</definedName>
+    <definedName name="Customers" localSheetId="6">#REF!</definedName>
     <definedName name="Customers">#REF!</definedName>
     <definedName name="Employees">#REF!</definedName>
     <definedName name="Members">#REF!</definedName>
@@ -44,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -167,6 +174,9 @@
   </si>
   <si>
     <t>ProBono</t>
+  </si>
+  <si>
+    <t>Waiting for the task</t>
   </si>
 </sst>
 </file>
@@ -216,6 +226,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="EmployeePosition"/>
+      <sheetName val="EmploymentStatus"/>
+      <sheetName val="DayType"/>
+      <sheetName val="CustomerStatus"/>
+      <sheetName val="ProjectStatus"/>
+      <sheetName val="PricingStatus"/>
+      <sheetName val="MemberStatus"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,7 +847,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -864,4 +899,59 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BC6BF1-880F-4A12-8843-A9D8AED59785}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>